--- a/tables/results/tableS3_RNA_results_table.xlsx
+++ b/tables/results/tableS3_RNA_results_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="3233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="3232">
   <si>
     <t xml:space="preserve">sample_id</t>
   </si>
@@ -9682,9 +9682,6 @@
   </si>
   <si>
     <t xml:space="preserve">BS_Z8JJGT26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tumor_Sample_Barcode</t>
   </si>
   <si>
     <t xml:space="preserve">NormEXTENDScores</t>
@@ -58391,10 +58388,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3223</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3224</v>
       </c>
     </row>
     <row r="2">
@@ -60919,7 +60916,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="B317" t="n">
         <v>0.671267186540326</v>
@@ -62023,7 +62020,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="B455" t="n">
         <v>0.461739973341269</v>
@@ -62551,7 +62548,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="B521" t="n">
         <v>0.589631738377951</v>
@@ -62615,7 +62612,7 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="B529" t="n">
         <v>0.288919911533233</v>
@@ -63015,7 +63012,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="B579" t="n">
         <v>0.471934715654177</v>
@@ -63487,7 +63484,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="B638" t="n">
         <v>0.504257797930562</v>
@@ -65055,7 +65052,7 @@
     </row>
     <row r="834">
       <c r="A834" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="B834" t="n">
         <v>0.388434921717611</v>
@@ -65127,7 +65124,7 @@
     </row>
     <row r="843">
       <c r="A843" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="B843" t="n">
         <v>0.658540636993398</v>
